--- a/ExcelReportGenerator.Tests/TestData/ExcelDataSourcePanelTest/TestGroupResultVertical.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/ExcelDataSourcePanelTest/TestGroupResultVertical.xlsx
@@ -419,17 +419,8 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="n">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="F3" s="1">
         <x:v>43151</x:v>
@@ -439,25 +430,15 @@
       <x:c r="B4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="D4" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F4" s="1">
-        <x:v>43151</x:v>
-      </x:c>
+      <x:c r="F4" s="1" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="B5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="n">
         <x:v>56</x:v>
       </x:c>
@@ -466,28 +447,20 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="n">
         <x:v>56.1</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="B7" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="B8" s="0" t="s">
@@ -510,35 +483,27 @@
       <x:c r="B9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="n">
-        <x:v>77.7</x:v>
-      </x:c>
-      <x:c r="F9" s="1">
-        <x:v>43152</x:v>
-      </x:c>
+      <x:c r="F9" s="1" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="23">
+  <x:mergeCells count="26">
     <x:mergeCell ref="C2:C2"/>
     <x:mergeCell ref="F2:F2"/>
     <x:mergeCell ref="B2:B3"/>
     <x:mergeCell ref="D2:D3"/>
+    <x:mergeCell ref="E2:E3"/>
     <x:mergeCell ref="B4:B4"/>
     <x:mergeCell ref="C3:C4"/>
     <x:mergeCell ref="D4:D4"/>
-    <x:mergeCell ref="E2:E4"/>
+    <x:mergeCell ref="E4:E4"/>
     <x:mergeCell ref="F3:F4"/>
+    <x:mergeCell ref="B5:B5"/>
     <x:mergeCell ref="E5:E5"/>
     <x:mergeCell ref="F5:F5"/>
+    <x:mergeCell ref="B6:B6"/>
     <x:mergeCell ref="D5:D6"/>
     <x:mergeCell ref="E6:E6"/>
-    <x:mergeCell ref="B5:B7"/>
+    <x:mergeCell ref="B7:B7"/>
     <x:mergeCell ref="C5:C7"/>
     <x:mergeCell ref="D7:D7"/>
     <x:mergeCell ref="E7:E7"/>

--- a/ExcelReportGenerator.Tests/TestData/ExcelDataSourcePanelTest/TestGroupResultVertical.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/ExcelDataSourcePanelTest/TestGroupResultVertical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>One</x:t>
   </x:si>
@@ -38,6 +38,9 @@
   </x:si>
   <x:si>
     <x:t>Five</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2018 0:00:00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -411,7 +414,7 @@
       <x:c r="D2" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
+      <x:c r="E2" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2" s="1">
@@ -430,16 +433,16 @@
       <x:c r="B4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="0">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F4" s="1" t="s"/>
+      <x:c r="F4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="B5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="n">
+      <x:c r="E5" s="0">
         <x:v>56</x:v>
       </x:c>
       <x:c r="F5" s="1">
@@ -447,7 +450,7 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="E6" s="0" t="n">
+      <x:c r="E6" s="0">
         <x:v>56.1</x:v>
       </x:c>
     </x:row>
@@ -455,10 +458,10 @@
       <x:c r="B7" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="n">
+      <x:c r="D7" s="0">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="n">
+      <x:c r="E7" s="0">
         <x:v>56</x:v>
       </x:c>
     </x:row>
@@ -472,7 +475,7 @@
       <x:c r="D8" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="n">
+      <x:c r="E8" s="0">
         <x:v>77.7</x:v>
       </x:c>
       <x:c r="F8" s="1">
@@ -483,36 +486,24 @@
       <x:c r="B9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F9" s="1" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="26">
-    <x:mergeCell ref="C2:C2"/>
-    <x:mergeCell ref="F2:F2"/>
+  <x:mergeCells count="12">
     <x:mergeCell ref="B2:B3"/>
     <x:mergeCell ref="D2:D3"/>
     <x:mergeCell ref="E2:E3"/>
-    <x:mergeCell ref="B4:B4"/>
     <x:mergeCell ref="C3:C4"/>
-    <x:mergeCell ref="D4:D4"/>
-    <x:mergeCell ref="E4:E4"/>
     <x:mergeCell ref="F3:F4"/>
-    <x:mergeCell ref="B5:B5"/>
-    <x:mergeCell ref="E5:E5"/>
-    <x:mergeCell ref="F5:F5"/>
-    <x:mergeCell ref="B6:B6"/>
+    <x:mergeCell ref="B5:B6"/>
+    <x:mergeCell ref="C5:C7"/>
     <x:mergeCell ref="D5:D6"/>
-    <x:mergeCell ref="E6:E6"/>
-    <x:mergeCell ref="B7:B7"/>
-    <x:mergeCell ref="C5:C7"/>
-    <x:mergeCell ref="D7:D7"/>
-    <x:mergeCell ref="E7:E7"/>
     <x:mergeCell ref="F6:F7"/>
-    <x:mergeCell ref="B8:B8"/>
     <x:mergeCell ref="C8:C9"/>
     <x:mergeCell ref="D8:D9"/>
     <x:mergeCell ref="E8:E9"/>
-    <x:mergeCell ref="F8:F9"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ExcelReportGenerator.Tests/TestData/ExcelDataSourcePanelTest/TestGroupResultVertical.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/ExcelDataSourcePanelTest/TestGroupResultVertical.xlsx
@@ -19,13 +19,13 @@
     <x:t>One</x:t>
   </x:si>
   <x:si>
+    <x:t>Two</x:t>
+  </x:si>
+  <x:si>
     <x:t>Orange</x:t>
   </x:si>
   <x:si>
     <x:t>Apple</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two</x:t>
   </x:si>
   <x:si>
     <x:t>Three</x:t>
@@ -398,18 +398,38 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F9"/>
+  <x:dimension ref="A1:L10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:6">
+    <x:row r="1" spans="1:12">
+      <x:c r="G1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:12">
       <x:c r="B2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D2" s="0" t="b">
         <x:v>1</x:v>
@@ -420,25 +440,49 @@
       <x:c r="F2" s="1">
         <x:v>43149</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
+      <x:c r="G2" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:12">
       <x:c r="C3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F3" s="1">
         <x:v>43151</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
+      <x:c r="H3" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:12">
       <x:c r="B4" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D4" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F4" s="1"/>
     </x:row>
-    <x:row r="5" spans="1:6">
+    <x:row r="5" spans="1:12">
       <x:c r="B5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -449,15 +493,12 @@
         <x:v>43149</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:6">
+    <x:row r="6" spans="1:12">
       <x:c r="E6" s="0">
         <x:v>56.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="B7" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
+    <x:row r="7" spans="1:12">
       <x:c r="D7" s="0">
         <x:v>0</x:v>
       </x:c>
@@ -465,7 +506,7 @@
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:6">
+    <x:row r="8" spans="1:12">
       <x:c r="B8" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -481,29 +522,67 @@
       <x:c r="F8" s="1">
         <x:v>43152</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6">
+      <x:c r="J8" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:12">
       <x:c r="B9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:12">
+      <x:c r="G10" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="12">
+  <x:mergeCells count="21">
+    <x:mergeCell ref="L1:L2"/>
     <x:mergeCell ref="B2:B3"/>
     <x:mergeCell ref="D2:D3"/>
-    <x:mergeCell ref="E2:E3"/>
+    <x:mergeCell ref="E2:E4"/>
+    <x:mergeCell ref="G2:G9"/>
+    <x:mergeCell ref="I2:I8"/>
+    <x:mergeCell ref="J2:J7"/>
     <x:mergeCell ref="C3:C4"/>
     <x:mergeCell ref="F3:F4"/>
-    <x:mergeCell ref="B5:B6"/>
+    <x:mergeCell ref="H3:H9"/>
+    <x:mergeCell ref="K3:K8"/>
+    <x:mergeCell ref="L3:L7"/>
+    <x:mergeCell ref="B5:B7"/>
     <x:mergeCell ref="C5:C7"/>
     <x:mergeCell ref="D5:D6"/>
     <x:mergeCell ref="F6:F7"/>
     <x:mergeCell ref="C8:C9"/>
     <x:mergeCell ref="D8:D9"/>
     <x:mergeCell ref="E8:E9"/>
+    <x:mergeCell ref="J8:J9"/>
+    <x:mergeCell ref="L8:L9"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
